--- a/correlation/daimler/minutely/correlation/daimler_correlation_price_with_semantics.xlsx
+++ b/correlation/daimler/minutely/correlation/daimler_correlation_price_with_semantics.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.0006637451422460215</v>
+        <v>-0.00438205061595026</v>
       </c>
       <c r="D2">
-        <v>-0.0004805737484568673</v>
+        <v>-0.003183176659083074</v>
       </c>
       <c r="E2">
-        <v>-0.0002389136708121449</v>
+        <v>0.0002357389686287691</v>
       </c>
       <c r="F2">
-        <v>0.003076257680008986</v>
+        <v>-0.001515265676699604</v>
       </c>
       <c r="G2">
-        <v>0.002963863278521695</v>
+        <v>0.00547059243261399</v>
       </c>
       <c r="H2">
-        <v>0.003384147928758542</v>
+        <v>-0.0002654397021209863</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.0006637451422460215</v>
+        <v>-0.00438205061595026</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9923315583101096</v>
+        <v>0.4988186858348951</v>
       </c>
       <c r="E3">
-        <v>-0.04456523633146524</v>
+        <v>-0.1243380287025751</v>
       </c>
       <c r="F3">
-        <v>0.06530929028167015</v>
+        <v>0.03364160867415564</v>
       </c>
       <c r="G3">
-        <v>-0.576110812738574</v>
+        <v>0.01403180369245883</v>
       </c>
       <c r="H3">
-        <v>-0.5690527660071565</v>
+        <v>0.03588050530291674</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.0004805737484568673</v>
+        <v>-0.003183176659083074</v>
       </c>
       <c r="C4">
-        <v>0.9923315583101096</v>
+        <v>0.4988186858348951</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.04180253613324037</v>
+        <v>-0.2159452546053075</v>
       </c>
       <c r="F4">
-        <v>0.09811790331752701</v>
+        <v>-0.04334317260157933</v>
       </c>
       <c r="G4">
-        <v>-0.5012971571116521</v>
+        <v>-0.3862151926184609</v>
       </c>
       <c r="H4">
-        <v>-0.5857796545419406</v>
+        <v>-0.03934662280344304</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.0002389136708121449</v>
+        <v>0.0002357389686287691</v>
       </c>
       <c r="C5">
-        <v>-0.04456523633146524</v>
+        <v>-0.1243380287025751</v>
       </c>
       <c r="D5">
-        <v>0.04180253613324037</v>
+        <v>-0.2159452546053075</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6042159759767859</v>
+        <v>0.2054588041851945</v>
       </c>
       <c r="G5">
-        <v>0.6656556856268752</v>
+        <v>0.4420084924336981</v>
       </c>
       <c r="H5">
-        <v>0.1038098814150395</v>
+        <v>0.2335977314107988</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.003076257680008986</v>
+        <v>-0.001515265676699604</v>
       </c>
       <c r="C6">
-        <v>0.06530929028167015</v>
+        <v>0.03364160867415564</v>
       </c>
       <c r="D6">
-        <v>0.09811790331752701</v>
+        <v>-0.04334317260157933</v>
       </c>
       <c r="E6">
-        <v>0.6042159759767859</v>
+        <v>0.2054588041851945</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6787734117030022</v>
+        <v>0.1985536847090691</v>
       </c>
       <c r="H6">
-        <v>0.653789524548272</v>
+        <v>0.3479209389066145</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002963863278521695</v>
+        <v>0.00547059243261399</v>
       </c>
       <c r="C7">
-        <v>-0.576110812738574</v>
+        <v>0.01403180369245883</v>
       </c>
       <c r="D7">
-        <v>-0.5012971571116521</v>
+        <v>-0.3862151926184609</v>
       </c>
       <c r="E7">
-        <v>0.6656556856268752</v>
+        <v>0.4420084924336981</v>
       </c>
       <c r="F7">
-        <v>0.6787734117030022</v>
+        <v>0.1985536847090691</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6852751343115806</v>
+        <v>0.4204111100183949</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003384147928758542</v>
+        <v>-0.0002654397021209863</v>
       </c>
       <c r="C8">
-        <v>-0.5690527660071565</v>
+        <v>0.03588050530291674</v>
       </c>
       <c r="D8">
-        <v>-0.5857796545419406</v>
+        <v>-0.03934662280344304</v>
       </c>
       <c r="E8">
-        <v>0.1038098814150395</v>
+        <v>0.2335977314107988</v>
       </c>
       <c r="F8">
-        <v>0.653789524548272</v>
+        <v>0.3479209389066145</v>
       </c>
       <c r="G8">
-        <v>0.6852751343115806</v>
+        <v>0.4204111100183949</v>
       </c>
       <c r="H8">
         <v>1</v>
